--- a/Clase07/Ejercicio1.xlsx
+++ b/Clase07/Ejercicio1.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\SQL-SERVER\CEPSUNI-DISBD-55567-LMV-08-11\Clase07\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B434F93-3B4A-40AB-840D-D655F8BF3176}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF96314-3BF5-430A-A27B-8D001A89C77B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{359D8D7D-37E7-4FE7-B555-673BA863BB24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{359D8D7D-37E7-4FE7-B555-673BA863BB24}"/>
   </bookViews>
   <sheets>
     <sheet name="RELACION UNIVERSAL" sheetId="1" r:id="rId1"/>
     <sheet name="1FN" sheetId="2" r:id="rId2"/>
     <sheet name="2FN" sheetId="3" r:id="rId3"/>
+    <sheet name="3FN" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="29">
   <si>
     <t>PEDIDOS</t>
   </si>
@@ -102,6 +103,18 @@
   </si>
   <si>
     <t>DETALLE_PEDIDO</t>
+  </si>
+  <si>
+    <t>IDPRODUCTO ----&gt; NOMPRODUCTO</t>
+  </si>
+  <si>
+    <t>(IDPEDIDO,IDPRODUCTO)  -----------&gt;    CANTIDAD</t>
+  </si>
+  <si>
+    <t>PRODUCTO</t>
+  </si>
+  <si>
+    <t>CLIENTE</t>
   </si>
 </sst>
 </file>
@@ -310,18 +323,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -337,15 +338,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -354,15 +346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -378,6 +361,36 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -397,6 +410,2786 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1029017</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Forma libre: forma 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F064935-66D4-49D2-91F2-F2E0033C1740}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="4486275"/>
+          <a:ext cx="1781492" cy="247650"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1781492"/>
+            <a:gd name="connsiteY0" fmla="*/ 238125 h 247650"/>
+            <a:gd name="connsiteX1" fmla="*/ 66675 w 1781492"/>
+            <a:gd name="connsiteY1" fmla="*/ 133350 h 247650"/>
+            <a:gd name="connsiteX2" fmla="*/ 95250 w 1781492"/>
+            <a:gd name="connsiteY2" fmla="*/ 123825 h 247650"/>
+            <a:gd name="connsiteX3" fmla="*/ 161925 w 1781492"/>
+            <a:gd name="connsiteY3" fmla="*/ 104775 h 247650"/>
+            <a:gd name="connsiteX4" fmla="*/ 276225 w 1781492"/>
+            <a:gd name="connsiteY4" fmla="*/ 114300 h 247650"/>
+            <a:gd name="connsiteX5" fmla="*/ 361950 w 1781492"/>
+            <a:gd name="connsiteY5" fmla="*/ 133350 h 247650"/>
+            <a:gd name="connsiteX6" fmla="*/ 628650 w 1781492"/>
+            <a:gd name="connsiteY6" fmla="*/ 123825 h 247650"/>
+            <a:gd name="connsiteX7" fmla="*/ 666750 w 1781492"/>
+            <a:gd name="connsiteY7" fmla="*/ 66675 h 247650"/>
+            <a:gd name="connsiteX8" fmla="*/ 685800 w 1781492"/>
+            <a:gd name="connsiteY8" fmla="*/ 38100 h 247650"/>
+            <a:gd name="connsiteX9" fmla="*/ 704850 w 1781492"/>
+            <a:gd name="connsiteY9" fmla="*/ 9525 h 247650"/>
+            <a:gd name="connsiteX10" fmla="*/ 733425 w 1781492"/>
+            <a:gd name="connsiteY10" fmla="*/ 0 h 247650"/>
+            <a:gd name="connsiteX11" fmla="*/ 771525 w 1781492"/>
+            <a:gd name="connsiteY11" fmla="*/ 57150 h 247650"/>
+            <a:gd name="connsiteX12" fmla="*/ 866775 w 1781492"/>
+            <a:gd name="connsiteY12" fmla="*/ 104775 h 247650"/>
+            <a:gd name="connsiteX13" fmla="*/ 1104900 w 1781492"/>
+            <a:gd name="connsiteY13" fmla="*/ 85725 h 247650"/>
+            <a:gd name="connsiteX14" fmla="*/ 1133475 w 1781492"/>
+            <a:gd name="connsiteY14" fmla="*/ 76200 h 247650"/>
+            <a:gd name="connsiteX15" fmla="*/ 1181100 w 1781492"/>
+            <a:gd name="connsiteY15" fmla="*/ 66675 h 247650"/>
+            <a:gd name="connsiteX16" fmla="*/ 1609725 w 1781492"/>
+            <a:gd name="connsiteY16" fmla="*/ 76200 h 247650"/>
+            <a:gd name="connsiteX17" fmla="*/ 1695450 w 1781492"/>
+            <a:gd name="connsiteY17" fmla="*/ 104775 h 247650"/>
+            <a:gd name="connsiteX18" fmla="*/ 1733550 w 1781492"/>
+            <a:gd name="connsiteY18" fmla="*/ 152400 h 247650"/>
+            <a:gd name="connsiteX19" fmla="*/ 1771650 w 1781492"/>
+            <a:gd name="connsiteY19" fmla="*/ 190500 h 247650"/>
+            <a:gd name="connsiteX20" fmla="*/ 1781175 w 1781492"/>
+            <a:gd name="connsiteY20" fmla="*/ 247650 h 247650"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1781492" h="247650">
+              <a:moveTo>
+                <a:pt x="0" y="238125"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="6132" y="227906"/>
+                <a:pt x="60629" y="135365"/>
+                <a:pt x="66675" y="133350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="76200" y="130175"/>
+                <a:pt x="85596" y="126583"/>
+                <a:pt x="95250" y="123825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="178971" y="99905"/>
+                <a:pt x="93412" y="127613"/>
+                <a:pt x="161925" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="200025" y="107950"/>
+                <a:pt x="238255" y="109833"/>
+                <a:pt x="276225" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="299066" y="116987"/>
+                <a:pt x="338564" y="127504"/>
+                <a:pt x="361950" y="133350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="450850" y="130175"/>
+                <a:pt x="541748" y="142835"/>
+                <a:pt x="628650" y="123825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="651016" y="118932"/>
+                <a:pt x="654050" y="85725"/>
+                <a:pt x="666750" y="66675"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="685800" y="38100"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="692150" y="28575"/>
+                <a:pt x="693990" y="13145"/>
+                <a:pt x="704850" y="9525"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="733425" y="0"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="746125" y="19050"/>
+                <a:pt x="752475" y="44450"/>
+                <a:pt x="771525" y="57150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="839567" y="102512"/>
+                <a:pt x="806463" y="89697"/>
+                <a:pt x="866775" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="927550" y="101200"/>
+                <a:pt x="1035035" y="98428"/>
+                <a:pt x="1104900" y="85725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1114778" y="83929"/>
+                <a:pt x="1123735" y="78635"/>
+                <a:pt x="1133475" y="76200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1149181" y="72273"/>
+                <a:pt x="1165225" y="69850"/>
+                <a:pt x="1181100" y="66675"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="1609725" y="76200"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="1664265" y="78339"/>
+                <a:pt x="1659046" y="80506"/>
+                <a:pt x="1695450" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1719391" y="176599"/>
+                <a:pt x="1684311" y="90852"/>
+                <a:pt x="1733550" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1770495" y="198582"/>
+                <a:pt x="1709305" y="169718"/>
+                <a:pt x="1771650" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1784187" y="228111"/>
+                <a:pt x="1781175" y="209035"/>
+                <a:pt x="1781175" y="247650"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190497</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Forma libre: forma 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA630DB4-9A81-4C8C-AC20-34FAFEF546B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6886572" y="4162425"/>
+          <a:ext cx="3000378" cy="504825"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 3000378 w 3000378"/>
+            <a:gd name="connsiteY0" fmla="*/ 504825 h 504825"/>
+            <a:gd name="connsiteX1" fmla="*/ 2990853 w 3000378"/>
+            <a:gd name="connsiteY1" fmla="*/ 361950 h 504825"/>
+            <a:gd name="connsiteX2" fmla="*/ 2981328 w 3000378"/>
+            <a:gd name="connsiteY2" fmla="*/ 314325 h 504825"/>
+            <a:gd name="connsiteX3" fmla="*/ 2962278 w 3000378"/>
+            <a:gd name="connsiteY3" fmla="*/ 257175 h 504825"/>
+            <a:gd name="connsiteX4" fmla="*/ 2952753 w 3000378"/>
+            <a:gd name="connsiteY4" fmla="*/ 228600 h 504825"/>
+            <a:gd name="connsiteX5" fmla="*/ 2924178 w 3000378"/>
+            <a:gd name="connsiteY5" fmla="*/ 209550 h 504825"/>
+            <a:gd name="connsiteX6" fmla="*/ 2800353 w 3000378"/>
+            <a:gd name="connsiteY6" fmla="*/ 180975 h 504825"/>
+            <a:gd name="connsiteX7" fmla="*/ 2771778 w 3000378"/>
+            <a:gd name="connsiteY7" fmla="*/ 171450 h 504825"/>
+            <a:gd name="connsiteX8" fmla="*/ 2657478 w 3000378"/>
+            <a:gd name="connsiteY8" fmla="*/ 152400 h 504825"/>
+            <a:gd name="connsiteX9" fmla="*/ 2438403 w 3000378"/>
+            <a:gd name="connsiteY9" fmla="*/ 133350 h 504825"/>
+            <a:gd name="connsiteX10" fmla="*/ 2105028 w 3000378"/>
+            <a:gd name="connsiteY10" fmla="*/ 114300 h 504825"/>
+            <a:gd name="connsiteX11" fmla="*/ 2066928 w 3000378"/>
+            <a:gd name="connsiteY11" fmla="*/ 104775 h 504825"/>
+            <a:gd name="connsiteX12" fmla="*/ 2038353 w 3000378"/>
+            <a:gd name="connsiteY12" fmla="*/ 95250 h 504825"/>
+            <a:gd name="connsiteX13" fmla="*/ 1971678 w 3000378"/>
+            <a:gd name="connsiteY13" fmla="*/ 85725 h 504825"/>
+            <a:gd name="connsiteX14" fmla="*/ 1838328 w 3000378"/>
+            <a:gd name="connsiteY14" fmla="*/ 66675 h 504825"/>
+            <a:gd name="connsiteX15" fmla="*/ 1790703 w 3000378"/>
+            <a:gd name="connsiteY15" fmla="*/ 57150 h 504825"/>
+            <a:gd name="connsiteX16" fmla="*/ 1752603 w 3000378"/>
+            <a:gd name="connsiteY16" fmla="*/ 47625 h 504825"/>
+            <a:gd name="connsiteX17" fmla="*/ 800103 w 3000378"/>
+            <a:gd name="connsiteY17" fmla="*/ 38100 h 504825"/>
+            <a:gd name="connsiteX18" fmla="*/ 161928 w 3000378"/>
+            <a:gd name="connsiteY18" fmla="*/ 28575 h 504825"/>
+            <a:gd name="connsiteX19" fmla="*/ 57153 w 3000378"/>
+            <a:gd name="connsiteY19" fmla="*/ 9525 h 504825"/>
+            <a:gd name="connsiteX20" fmla="*/ 19053 w 3000378"/>
+            <a:gd name="connsiteY20" fmla="*/ 0 h 504825"/>
+            <a:gd name="connsiteX21" fmla="*/ 9528 w 3000378"/>
+            <a:gd name="connsiteY21" fmla="*/ 28575 h 504825"/>
+            <a:gd name="connsiteX22" fmla="*/ 3 w 3000378"/>
+            <a:gd name="connsiteY22" fmla="*/ 333375 h 504825"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3000378" h="504825">
+              <a:moveTo>
+                <a:pt x="3000378" y="504825"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2997203" y="457200"/>
+                <a:pt x="2995602" y="409444"/>
+                <a:pt x="2990853" y="361950"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2989242" y="345841"/>
+                <a:pt x="2985588" y="329944"/>
+                <a:pt x="2981328" y="314325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2976044" y="294952"/>
+                <a:pt x="2968628" y="276225"/>
+                <a:pt x="2962278" y="257175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2959103" y="247650"/>
+                <a:pt x="2961107" y="234169"/>
+                <a:pt x="2952753" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2943228" y="222250"/>
+                <a:pt x="2934639" y="214199"/>
+                <a:pt x="2924178" y="209550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2874632" y="187529"/>
+                <a:pt x="2854593" y="188724"/>
+                <a:pt x="2800353" y="180975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2790828" y="177800"/>
+                <a:pt x="2781518" y="173885"/>
+                <a:pt x="2771778" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2742391" y="164103"/>
+                <a:pt x="2684360" y="155088"/>
+                <a:pt x="2657478" y="152400"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2584541" y="145106"/>
+                <a:pt x="2511436" y="139610"/>
+                <a:pt x="2438403" y="133350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2261811" y="118214"/>
+                <a:pt x="2342130" y="124609"/>
+                <a:pt x="2105028" y="114300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2092328" y="111125"/>
+                <a:pt x="2079515" y="108371"/>
+                <a:pt x="2066928" y="104775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2057274" y="102017"/>
+                <a:pt x="2048198" y="97219"/>
+                <a:pt x="2038353" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2016338" y="90847"/>
+                <a:pt x="1993823" y="89416"/>
+                <a:pt x="1971678" y="85725"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1713274" y="42658"/>
+                <a:pt x="2264400" y="127542"/>
+                <a:pt x="1838328" y="66675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1822301" y="64385"/>
+                <a:pt x="1806507" y="60662"/>
+                <a:pt x="1790703" y="57150"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1777924" y="54310"/>
+                <a:pt x="1765691" y="47877"/>
+                <a:pt x="1752603" y="47625"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="800103" y="38100"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="161928" y="28575"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="75514" y="6971"/>
+                <a:pt x="182293" y="32278"/>
+                <a:pt x="57153" y="9525"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44273" y="7183"/>
+                <a:pt x="31753" y="3175"/>
+                <a:pt x="19053" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="15878" y="9525"/>
+                <a:pt x="10174" y="18556"/>
+                <a:pt x="9528" y="28575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="-450" y="183238"/>
+                <a:pt x="3" y="224125"/>
+                <a:pt x="3" y="333375"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>245879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>638585</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Forma libre: forma 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B999E0-0C16-4C70-85D0-B38FBB3E3061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7143750" y="4989329"/>
+          <a:ext cx="1238660" cy="468496"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1238660"/>
+            <a:gd name="connsiteY0" fmla="*/ 68446 h 468496"/>
+            <a:gd name="connsiteX1" fmla="*/ 9525 w 1238660"/>
+            <a:gd name="connsiteY1" fmla="*/ 116071 h 468496"/>
+            <a:gd name="connsiteX2" fmla="*/ 28575 w 1238660"/>
+            <a:gd name="connsiteY2" fmla="*/ 144646 h 468496"/>
+            <a:gd name="connsiteX3" fmla="*/ 38100 w 1238660"/>
+            <a:gd name="connsiteY3" fmla="*/ 192271 h 468496"/>
+            <a:gd name="connsiteX4" fmla="*/ 57150 w 1238660"/>
+            <a:gd name="connsiteY4" fmla="*/ 230371 h 468496"/>
+            <a:gd name="connsiteX5" fmla="*/ 76200 w 1238660"/>
+            <a:gd name="connsiteY5" fmla="*/ 287521 h 468496"/>
+            <a:gd name="connsiteX6" fmla="*/ 104775 w 1238660"/>
+            <a:gd name="connsiteY6" fmla="*/ 306571 h 468496"/>
+            <a:gd name="connsiteX7" fmla="*/ 142875 w 1238660"/>
+            <a:gd name="connsiteY7" fmla="*/ 354196 h 468496"/>
+            <a:gd name="connsiteX8" fmla="*/ 161925 w 1238660"/>
+            <a:gd name="connsiteY8" fmla="*/ 382771 h 468496"/>
+            <a:gd name="connsiteX9" fmla="*/ 219075 w 1238660"/>
+            <a:gd name="connsiteY9" fmla="*/ 401821 h 468496"/>
+            <a:gd name="connsiteX10" fmla="*/ 257175 w 1238660"/>
+            <a:gd name="connsiteY10" fmla="*/ 430396 h 468496"/>
+            <a:gd name="connsiteX11" fmla="*/ 285750 w 1238660"/>
+            <a:gd name="connsiteY11" fmla="*/ 439921 h 468496"/>
+            <a:gd name="connsiteX12" fmla="*/ 390525 w 1238660"/>
+            <a:gd name="connsiteY12" fmla="*/ 468496 h 468496"/>
+            <a:gd name="connsiteX13" fmla="*/ 933450 w 1238660"/>
+            <a:gd name="connsiteY13" fmla="*/ 458971 h 468496"/>
+            <a:gd name="connsiteX14" fmla="*/ 971550 w 1238660"/>
+            <a:gd name="connsiteY14" fmla="*/ 449446 h 468496"/>
+            <a:gd name="connsiteX15" fmla="*/ 1047750 w 1238660"/>
+            <a:gd name="connsiteY15" fmla="*/ 430396 h 468496"/>
+            <a:gd name="connsiteX16" fmla="*/ 1095375 w 1238660"/>
+            <a:gd name="connsiteY16" fmla="*/ 382771 h 468496"/>
+            <a:gd name="connsiteX17" fmla="*/ 1114425 w 1238660"/>
+            <a:gd name="connsiteY17" fmla="*/ 354196 h 468496"/>
+            <a:gd name="connsiteX18" fmla="*/ 1181100 w 1238660"/>
+            <a:gd name="connsiteY18" fmla="*/ 258946 h 468496"/>
+            <a:gd name="connsiteX19" fmla="*/ 1209675 w 1238660"/>
+            <a:gd name="connsiteY19" fmla="*/ 201796 h 468496"/>
+            <a:gd name="connsiteX20" fmla="*/ 1228725 w 1238660"/>
+            <a:gd name="connsiteY20" fmla="*/ 144646 h 468496"/>
+            <a:gd name="connsiteX21" fmla="*/ 1228725 w 1238660"/>
+            <a:gd name="connsiteY21" fmla="*/ 1771 h 468496"/>
+            <a:gd name="connsiteX22" fmla="*/ 1219200 w 1238660"/>
+            <a:gd name="connsiteY22" fmla="*/ 30346 h 468496"/>
+            <a:gd name="connsiteX23" fmla="*/ 1219200 w 1238660"/>
+            <a:gd name="connsiteY23" fmla="*/ 87496 h 468496"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1238660" h="468496">
+              <a:moveTo>
+                <a:pt x="0" y="68446"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="3175" y="84321"/>
+                <a:pt x="3841" y="100912"/>
+                <a:pt x="9525" y="116071"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="13545" y="126790"/>
+                <a:pt x="24555" y="133927"/>
+                <a:pt x="28575" y="144646"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="34259" y="159805"/>
+                <a:pt x="32980" y="176912"/>
+                <a:pt x="38100" y="192271"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="42590" y="205741"/>
+                <a:pt x="51877" y="217188"/>
+                <a:pt x="57150" y="230371"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="64608" y="249015"/>
+                <a:pt x="59492" y="276382"/>
+                <a:pt x="76200" y="287521"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="104775" y="306571"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="123318" y="362201"/>
+                <a:pt x="99791" y="311112"/>
+                <a:pt x="142875" y="354196"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="150970" y="362291"/>
+                <a:pt x="152217" y="376704"/>
+                <a:pt x="161925" y="382771"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="178953" y="393414"/>
+                <a:pt x="219075" y="401821"/>
+                <a:pt x="219075" y="401821"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="231775" y="411346"/>
+                <a:pt x="243392" y="422520"/>
+                <a:pt x="257175" y="430396"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="265892" y="435377"/>
+                <a:pt x="276064" y="437279"/>
+                <a:pt x="285750" y="439921"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="403918" y="472149"/>
+                <a:pt x="324753" y="446572"/>
+                <a:pt x="390525" y="468496"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="933450" y="458971"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="946534" y="458542"/>
+                <a:pt x="958771" y="452286"/>
+                <a:pt x="971550" y="449446"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1040514" y="434121"/>
+                <a:pt x="996688" y="447417"/>
+                <a:pt x="1047750" y="430396"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1098550" y="354196"/>
+                <a:pt x="1031875" y="446271"/>
+                <a:pt x="1095375" y="382771"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1103470" y="374676"/>
+                <a:pt x="1107771" y="363511"/>
+                <a:pt x="1114425" y="354196"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1128010" y="335178"/>
+                <a:pt x="1175626" y="275369"/>
+                <a:pt x="1181100" y="258946"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1215838" y="154733"/>
+                <a:pt x="1160436" y="312583"/>
+                <a:pt x="1209675" y="201796"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1217830" y="183446"/>
+                <a:pt x="1228725" y="144646"/>
+                <a:pt x="1228725" y="144646"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1233541" y="106119"/>
+                <a:pt x="1248443" y="41206"/>
+                <a:pt x="1228725" y="1771"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1224235" y="-7209"/>
+                <a:pt x="1220309" y="20367"/>
+                <a:pt x="1219200" y="30346"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1217096" y="49279"/>
+                <a:pt x="1219200" y="68446"/>
+                <a:pt x="1219200" y="87496"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>18025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Forma libre: forma 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A75F37-038A-4C77-9022-D451AEEB7815}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9705975" y="4513825"/>
+          <a:ext cx="323850" cy="39125"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 323850"/>
+            <a:gd name="connsiteY0" fmla="*/ 39125 h 39125"/>
+            <a:gd name="connsiteX1" fmla="*/ 85725 w 323850"/>
+            <a:gd name="connsiteY1" fmla="*/ 20075 h 39125"/>
+            <a:gd name="connsiteX2" fmla="*/ 171450 w 323850"/>
+            <a:gd name="connsiteY2" fmla="*/ 1025 h 39125"/>
+            <a:gd name="connsiteX3" fmla="*/ 323850 w 323850"/>
+            <a:gd name="connsiteY3" fmla="*/ 1025 h 39125"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="323850" h="39125">
+              <a:moveTo>
+                <a:pt x="0" y="39125"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="32736" y="32578"/>
+                <a:pt x="54338" y="29043"/>
+                <a:pt x="85725" y="20075"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="124330" y="9045"/>
+                <a:pt x="120346" y="3348"/>
+                <a:pt x="171450" y="1025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="222198" y="-1282"/>
+                <a:pt x="273050" y="1025"/>
+                <a:pt x="323850" y="1025"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Forma libre: forma 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{775950B2-87F1-49D4-A657-686328E6B9E5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8229600" y="5124170"/>
+          <a:ext cx="342900" cy="9805"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 342900"/>
+            <a:gd name="connsiteY0" fmla="*/ 9805 h 9805"/>
+            <a:gd name="connsiteX1" fmla="*/ 342900 w 342900"/>
+            <a:gd name="connsiteY1" fmla="*/ 280 h 9805"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="342900" h="9805">
+              <a:moveTo>
+                <a:pt x="0" y="9805"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="234875" y="-2557"/>
+                <a:pt x="120567" y="280"/>
+                <a:pt x="342900" y="280"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1002509</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>119875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Forma libre: forma 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9986DC57-D28C-45E0-BB1C-87CC16B473A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="1609725"/>
+          <a:ext cx="5450684" cy="2148700"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 5450684"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2148700"/>
+            <a:gd name="connsiteX1" fmla="*/ 9525 w 5450684"/>
+            <a:gd name="connsiteY1" fmla="*/ 1428750 h 2148700"/>
+            <a:gd name="connsiteX2" fmla="*/ 28575 w 5450684"/>
+            <a:gd name="connsiteY2" fmla="*/ 1524000 h 2148700"/>
+            <a:gd name="connsiteX3" fmla="*/ 38100 w 5450684"/>
+            <a:gd name="connsiteY3" fmla="*/ 1590675 h 2148700"/>
+            <a:gd name="connsiteX4" fmla="*/ 47625 w 5450684"/>
+            <a:gd name="connsiteY4" fmla="*/ 1628775 h 2148700"/>
+            <a:gd name="connsiteX5" fmla="*/ 57150 w 5450684"/>
+            <a:gd name="connsiteY5" fmla="*/ 1695450 h 2148700"/>
+            <a:gd name="connsiteX6" fmla="*/ 66675 w 5450684"/>
+            <a:gd name="connsiteY6" fmla="*/ 1733550 h 2148700"/>
+            <a:gd name="connsiteX7" fmla="*/ 85725 w 5450684"/>
+            <a:gd name="connsiteY7" fmla="*/ 1790700 h 2148700"/>
+            <a:gd name="connsiteX8" fmla="*/ 95250 w 5450684"/>
+            <a:gd name="connsiteY8" fmla="*/ 2105025 h 2148700"/>
+            <a:gd name="connsiteX9" fmla="*/ 657225 w 5450684"/>
+            <a:gd name="connsiteY9" fmla="*/ 2114550 h 2148700"/>
+            <a:gd name="connsiteX10" fmla="*/ 1333500 w 5450684"/>
+            <a:gd name="connsiteY10" fmla="*/ 2105025 h 2148700"/>
+            <a:gd name="connsiteX11" fmla="*/ 1371600 w 5450684"/>
+            <a:gd name="connsiteY11" fmla="*/ 2095500 h 2148700"/>
+            <a:gd name="connsiteX12" fmla="*/ 1524000 w 5450684"/>
+            <a:gd name="connsiteY12" fmla="*/ 2076450 h 2148700"/>
+            <a:gd name="connsiteX13" fmla="*/ 1638300 w 5450684"/>
+            <a:gd name="connsiteY13" fmla="*/ 2038350 h 2148700"/>
+            <a:gd name="connsiteX14" fmla="*/ 1676400 w 5450684"/>
+            <a:gd name="connsiteY14" fmla="*/ 2019300 h 2148700"/>
+            <a:gd name="connsiteX15" fmla="*/ 1828800 w 5450684"/>
+            <a:gd name="connsiteY15" fmla="*/ 1981200 h 2148700"/>
+            <a:gd name="connsiteX16" fmla="*/ 1866900 w 5450684"/>
+            <a:gd name="connsiteY16" fmla="*/ 1971675 h 2148700"/>
+            <a:gd name="connsiteX17" fmla="*/ 1924050 w 5450684"/>
+            <a:gd name="connsiteY17" fmla="*/ 1952625 h 2148700"/>
+            <a:gd name="connsiteX18" fmla="*/ 2200275 w 5450684"/>
+            <a:gd name="connsiteY18" fmla="*/ 1933575 h 2148700"/>
+            <a:gd name="connsiteX19" fmla="*/ 4114800 w 5450684"/>
+            <a:gd name="connsiteY19" fmla="*/ 1952625 h 2148700"/>
+            <a:gd name="connsiteX20" fmla="*/ 4219575 w 5450684"/>
+            <a:gd name="connsiteY20" fmla="*/ 1971675 h 2148700"/>
+            <a:gd name="connsiteX21" fmla="*/ 4429125 w 5450684"/>
+            <a:gd name="connsiteY21" fmla="*/ 2000250 h 2148700"/>
+            <a:gd name="connsiteX22" fmla="*/ 4533900 w 5450684"/>
+            <a:gd name="connsiteY22" fmla="*/ 2019300 h 2148700"/>
+            <a:gd name="connsiteX23" fmla="*/ 4638675 w 5450684"/>
+            <a:gd name="connsiteY23" fmla="*/ 2047875 h 2148700"/>
+            <a:gd name="connsiteX24" fmla="*/ 4724400 w 5450684"/>
+            <a:gd name="connsiteY24" fmla="*/ 2066925 h 2148700"/>
+            <a:gd name="connsiteX25" fmla="*/ 4933950 w 5450684"/>
+            <a:gd name="connsiteY25" fmla="*/ 2076450 h 2148700"/>
+            <a:gd name="connsiteX26" fmla="*/ 5353050 w 5450684"/>
+            <a:gd name="connsiteY26" fmla="*/ 2057400 h 2148700"/>
+            <a:gd name="connsiteX27" fmla="*/ 5400675 w 5450684"/>
+            <a:gd name="connsiteY27" fmla="*/ 2047875 h 2148700"/>
+            <a:gd name="connsiteX28" fmla="*/ 5429250 w 5450684"/>
+            <a:gd name="connsiteY28" fmla="*/ 2019300 h 2148700"/>
+            <a:gd name="connsiteX29" fmla="*/ 5429250 w 5450684"/>
+            <a:gd name="connsiteY29" fmla="*/ 1704975 h 2148700"/>
+            <a:gd name="connsiteX30" fmla="*/ 5410200 w 5450684"/>
+            <a:gd name="connsiteY30" fmla="*/ 1628775 h 2148700"/>
+            <a:gd name="connsiteX31" fmla="*/ 5400675 w 5450684"/>
+            <a:gd name="connsiteY31" fmla="*/ 1314450 h 2148700"/>
+            <a:gd name="connsiteX32" fmla="*/ 5381625 w 5450684"/>
+            <a:gd name="connsiteY32" fmla="*/ 1257300 h 2148700"/>
+            <a:gd name="connsiteX33" fmla="*/ 5362575 w 5450684"/>
+            <a:gd name="connsiteY33" fmla="*/ 1133475 h 2148700"/>
+            <a:gd name="connsiteX34" fmla="*/ 5343525 w 5450684"/>
+            <a:gd name="connsiteY34" fmla="*/ 1066800 h 2148700"/>
+            <a:gd name="connsiteX35" fmla="*/ 5334000 w 5450684"/>
+            <a:gd name="connsiteY35" fmla="*/ 857250 h 2148700"/>
+            <a:gd name="connsiteX36" fmla="*/ 5324475 w 5450684"/>
+            <a:gd name="connsiteY36" fmla="*/ 714375 h 2148700"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX14" y="connsiteY14"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX15" y="connsiteY15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX16" y="connsiteY16"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX17" y="connsiteY17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX18" y="connsiteY18"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX19" y="connsiteY19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX20" y="connsiteY20"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX21" y="connsiteY21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX22" y="connsiteY22"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX23" y="connsiteY23"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX24" y="connsiteY24"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX25" y="connsiteY25"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX26" y="connsiteY26"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX27" y="connsiteY27"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX28" y="connsiteY28"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX29" y="connsiteY29"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX30" y="connsiteY30"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX31" y="connsiteY31"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX32" y="connsiteY32"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX33" y="connsiteY33"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX34" y="connsiteY34"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX35" y="connsiteY35"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX36" y="connsiteY36"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="5450684" h="2148700">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="3175" y="476250"/>
+                <a:pt x="3420" y="952529"/>
+                <a:pt x="9525" y="1428750"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="10039" y="1468860"/>
+                <a:pt x="21933" y="1487467"/>
+                <a:pt x="28575" y="1524000"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="32591" y="1546089"/>
+                <a:pt x="34084" y="1568586"/>
+                <a:pt x="38100" y="1590675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="40442" y="1603555"/>
+                <a:pt x="45283" y="1615895"/>
+                <a:pt x="47625" y="1628775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="51641" y="1650864"/>
+                <a:pt x="53134" y="1673361"/>
+                <a:pt x="57150" y="1695450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="59492" y="1708330"/>
+                <a:pt x="62913" y="1721011"/>
+                <a:pt x="66675" y="1733550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="72445" y="1752784"/>
+                <a:pt x="85725" y="1790700"/>
+                <a:pt x="85725" y="1790700"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="88900" y="1895475"/>
+                <a:pt x="4052" y="2053346"/>
+                <a:pt x="95250" y="2105025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="258250" y="2197392"/>
+                <a:pt x="469873" y="2114550"/>
+                <a:pt x="657225" y="2114550"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="882672" y="2114550"/>
+                <a:pt x="1108075" y="2108200"/>
+                <a:pt x="1333500" y="2105025"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1346200" y="2101850"/>
+                <a:pt x="1358720" y="2097842"/>
+                <a:pt x="1371600" y="2095500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1414315" y="2087734"/>
+                <a:pt x="1483095" y="2080995"/>
+                <a:pt x="1524000" y="2076450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1562100" y="2063750"/>
+                <a:pt x="1600696" y="2052451"/>
+                <a:pt x="1638300" y="2038350"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1651595" y="2033364"/>
+                <a:pt x="1663028" y="2024076"/>
+                <a:pt x="1676400" y="2019300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1781497" y="1981765"/>
+                <a:pt x="1743994" y="1998161"/>
+                <a:pt x="1828800" y="1981200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1841637" y="1978633"/>
+                <a:pt x="1854361" y="1975437"/>
+                <a:pt x="1866900" y="1971675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1886134" y="1965905"/>
+                <a:pt x="1903997" y="1953680"/>
+                <a:pt x="1924050" y="1952625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2136889" y="1941423"/>
+                <a:pt x="2044916" y="1949111"/>
+                <a:pt x="2200275" y="1933575"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="4114800" y="1952625"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="4138835" y="1952973"/>
+                <a:pt x="4194158" y="1968286"/>
+                <a:pt x="4219575" y="1971675"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4441566" y="2001274"/>
+                <a:pt x="4176453" y="1956307"/>
+                <a:pt x="4429125" y="2000250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4464098" y="2006332"/>
+                <a:pt x="4500224" y="2008075"/>
+                <a:pt x="4533900" y="2019300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4616428" y="2046809"/>
+                <a:pt x="4563282" y="2031719"/>
+                <a:pt x="4638675" y="2047875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4667297" y="2054008"/>
+                <a:pt x="4695264" y="2064105"/>
+                <a:pt x="4724400" y="2066925"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4793997" y="2073660"/>
+                <a:pt x="4864100" y="2073275"/>
+                <a:pt x="4933950" y="2076450"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="5353050" y="2057400"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="5369209" y="2056411"/>
+                <a:pt x="5386195" y="2055115"/>
+                <a:pt x="5400675" y="2047875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5412723" y="2041851"/>
+                <a:pt x="5419725" y="2028825"/>
+                <a:pt x="5429250" y="2019300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5468279" y="1902213"/>
+                <a:pt x="5445121" y="1982724"/>
+                <a:pt x="5429250" y="1704975"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5427665" y="1677231"/>
+                <a:pt x="5418699" y="1654273"/>
+                <a:pt x="5410200" y="1628775"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5407025" y="1524000"/>
+                <a:pt x="5408715" y="1418964"/>
+                <a:pt x="5400675" y="1314450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5399135" y="1294429"/>
+                <a:pt x="5385762" y="1276950"/>
+                <a:pt x="5381625" y="1257300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5373022" y="1216435"/>
+                <a:pt x="5369832" y="1174600"/>
+                <a:pt x="5362575" y="1133475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5358090" y="1108060"/>
+                <a:pt x="5351457" y="1090595"/>
+                <a:pt x="5343525" y="1066800"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5340350" y="996950"/>
+                <a:pt x="5337989" y="927058"/>
+                <a:pt x="5334000" y="857250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5323988" y="682040"/>
+                <a:pt x="5324475" y="781733"/>
+                <a:pt x="5324475" y="714375"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>159557</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Forma libre: forma 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{948C3FBB-EEB5-4374-8C40-CC35A9C3C49F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2981325" y="1893107"/>
+          <a:ext cx="514350" cy="21418"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 514350"/>
+            <a:gd name="connsiteY0" fmla="*/ 21418 h 21418"/>
+            <a:gd name="connsiteX1" fmla="*/ 57150 w 514350"/>
+            <a:gd name="connsiteY1" fmla="*/ 11893 h 21418"/>
+            <a:gd name="connsiteX2" fmla="*/ 514350 w 514350"/>
+            <a:gd name="connsiteY2" fmla="*/ 2368 h 21418"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="514350" h="21418">
+              <a:moveTo>
+                <a:pt x="0" y="21418"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="19050" y="18243"/>
+                <a:pt x="37955" y="14026"/>
+                <a:pt x="57150" y="11893"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="228304" y="-7124"/>
+                <a:pt x="303781" y="2368"/>
+                <a:pt x="514350" y="2368"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Forma libre: forma 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C37AFF3-8BD4-4DB8-B7B0-FD565BA01B4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8191500" y="2647950"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 857250"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 0"/>
+            <a:gd name="connsiteX1" fmla="*/ 857250 w 857250"/>
+            <a:gd name="connsiteY1" fmla="*/ 0 h 0"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="857250">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:lnTo>
+                <a:pt x="857250" y="0"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>914400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Forma libre: forma 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77BCAB55-312F-4AA0-955A-DD7D13261A5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8201025" y="2314575"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 371475"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 381000"/>
+            <a:gd name="connsiteX1" fmla="*/ 47625 w 371475"/>
+            <a:gd name="connsiteY1" fmla="*/ 47625 h 381000"/>
+            <a:gd name="connsiteX2" fmla="*/ 95250 w 371475"/>
+            <a:gd name="connsiteY2" fmla="*/ 95250 h 381000"/>
+            <a:gd name="connsiteX3" fmla="*/ 114300 w 371475"/>
+            <a:gd name="connsiteY3" fmla="*/ 123825 h 381000"/>
+            <a:gd name="connsiteX4" fmla="*/ 142875 w 371475"/>
+            <a:gd name="connsiteY4" fmla="*/ 142875 h 381000"/>
+            <a:gd name="connsiteX5" fmla="*/ 171450 w 371475"/>
+            <a:gd name="connsiteY5" fmla="*/ 171450 h 381000"/>
+            <a:gd name="connsiteX6" fmla="*/ 200025 w 371475"/>
+            <a:gd name="connsiteY6" fmla="*/ 190500 h 381000"/>
+            <a:gd name="connsiteX7" fmla="*/ 257175 w 371475"/>
+            <a:gd name="connsiteY7" fmla="*/ 228600 h 381000"/>
+            <a:gd name="connsiteX8" fmla="*/ 314325 w 371475"/>
+            <a:gd name="connsiteY8" fmla="*/ 314325 h 381000"/>
+            <a:gd name="connsiteX9" fmla="*/ 333375 w 371475"/>
+            <a:gd name="connsiteY9" fmla="*/ 342900 h 381000"/>
+            <a:gd name="connsiteX10" fmla="*/ 352425 w 371475"/>
+            <a:gd name="connsiteY10" fmla="*/ 371475 h 381000"/>
+            <a:gd name="connsiteX11" fmla="*/ 371475 w 371475"/>
+            <a:gd name="connsiteY11" fmla="*/ 381000 h 381000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="371475" h="381000">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="15875" y="15875"/>
+                <a:pt x="32841" y="30729"/>
+                <a:pt x="47625" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="92075" y="98425"/>
+                <a:pt x="38100" y="57150"/>
+                <a:pt x="95250" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="101600" y="104775"/>
+                <a:pt x="106205" y="115730"/>
+                <a:pt x="114300" y="123825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="122395" y="131920"/>
+                <a:pt x="134081" y="135546"/>
+                <a:pt x="142875" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="153223" y="151499"/>
+                <a:pt x="161102" y="162826"/>
+                <a:pt x="171450" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="180244" y="178779"/>
+                <a:pt x="191231" y="183171"/>
+                <a:pt x="200025" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="247591" y="230138"/>
+                <a:pt x="206957" y="211861"/>
+                <a:pt x="257175" y="228600"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="314325" y="314325"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="333375" y="342900"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="339725" y="352425"/>
+                <a:pt x="342186" y="366355"/>
+                <a:pt x="352425" y="371475"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="371475" y="381000"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Forma libre: forma 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D006EE24-6507-432C-B82D-150CA9868A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8534400" y="2343150"/>
+          <a:ext cx="371475" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 371475 w 371475"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 381000"/>
+            <a:gd name="connsiteX1" fmla="*/ 323850 w 371475"/>
+            <a:gd name="connsiteY1" fmla="*/ 19050 h 381000"/>
+            <a:gd name="connsiteX2" fmla="*/ 285750 w 371475"/>
+            <a:gd name="connsiteY2" fmla="*/ 76200 h 381000"/>
+            <a:gd name="connsiteX3" fmla="*/ 257175 w 371475"/>
+            <a:gd name="connsiteY3" fmla="*/ 95250 h 381000"/>
+            <a:gd name="connsiteX4" fmla="*/ 247650 w 371475"/>
+            <a:gd name="connsiteY4" fmla="*/ 123825 h 381000"/>
+            <a:gd name="connsiteX5" fmla="*/ 219075 w 371475"/>
+            <a:gd name="connsiteY5" fmla="*/ 142875 h 381000"/>
+            <a:gd name="connsiteX6" fmla="*/ 190500 w 371475"/>
+            <a:gd name="connsiteY6" fmla="*/ 171450 h 381000"/>
+            <a:gd name="connsiteX7" fmla="*/ 152400 w 371475"/>
+            <a:gd name="connsiteY7" fmla="*/ 228600 h 381000"/>
+            <a:gd name="connsiteX8" fmla="*/ 133350 w 371475"/>
+            <a:gd name="connsiteY8" fmla="*/ 257175 h 381000"/>
+            <a:gd name="connsiteX9" fmla="*/ 104775 w 371475"/>
+            <a:gd name="connsiteY9" fmla="*/ 276225 h 381000"/>
+            <a:gd name="connsiteX10" fmla="*/ 57150 w 371475"/>
+            <a:gd name="connsiteY10" fmla="*/ 323850 h 381000"/>
+            <a:gd name="connsiteX11" fmla="*/ 38100 w 371475"/>
+            <a:gd name="connsiteY11" fmla="*/ 352425 h 381000"/>
+            <a:gd name="connsiteX12" fmla="*/ 9525 w 371475"/>
+            <a:gd name="connsiteY12" fmla="*/ 371475 h 381000"/>
+            <a:gd name="connsiteX13" fmla="*/ 0 w 371475"/>
+            <a:gd name="connsiteY13" fmla="*/ 381000 h 381000"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX8" y="connsiteY8"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX9" y="connsiteY9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX10" y="connsiteY10"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX11" y="connsiteY11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX12" y="connsiteY12"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX13" y="connsiteY13"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="371475" h="381000">
+              <a:moveTo>
+                <a:pt x="371475" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="355600" y="6350"/>
+                <a:pt x="336629" y="7691"/>
+                <a:pt x="323850" y="19050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="306738" y="34261"/>
+                <a:pt x="304800" y="63500"/>
+                <a:pt x="285750" y="76200"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="257175" y="95250"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="254000" y="104775"/>
+                <a:pt x="253922" y="115985"/>
+                <a:pt x="247650" y="123825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="240499" y="132764"/>
+                <a:pt x="227869" y="135546"/>
+                <a:pt x="219075" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="208727" y="151499"/>
+                <a:pt x="198770" y="160817"/>
+                <a:pt x="190500" y="171450"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="176444" y="189522"/>
+                <a:pt x="165100" y="209550"/>
+                <a:pt x="152400" y="228600"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="146050" y="238125"/>
+                <a:pt x="142875" y="250825"/>
+                <a:pt x="133350" y="257175"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="104775" y="276225"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="53975" y="352425"/>
+                <a:pt x="120650" y="260350"/>
+                <a:pt x="57150" y="323850"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="49055" y="331945"/>
+                <a:pt x="46195" y="344330"/>
+                <a:pt x="38100" y="352425"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="30005" y="360520"/>
+                <a:pt x="18683" y="364606"/>
+                <a:pt x="9525" y="371475"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="5933" y="374169"/>
+                <a:pt x="3175" y="377825"/>
+                <a:pt x="0" y="381000"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1162050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Forma libre: forma 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B363C10-863D-4062-9647-101C0643C6D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9848850" y="1409700"/>
+          <a:ext cx="781050" cy="57150"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 781050"/>
+            <a:gd name="connsiteY0" fmla="*/ 57150 h 57150"/>
+            <a:gd name="connsiteX1" fmla="*/ 85725 w 781050"/>
+            <a:gd name="connsiteY1" fmla="*/ 47625 h 57150"/>
+            <a:gd name="connsiteX2" fmla="*/ 114300 w 781050"/>
+            <a:gd name="connsiteY2" fmla="*/ 38100 h 57150"/>
+            <a:gd name="connsiteX3" fmla="*/ 161925 w 781050"/>
+            <a:gd name="connsiteY3" fmla="*/ 28575 h 57150"/>
+            <a:gd name="connsiteX4" fmla="*/ 228600 w 781050"/>
+            <a:gd name="connsiteY4" fmla="*/ 19050 h 57150"/>
+            <a:gd name="connsiteX5" fmla="*/ 295275 w 781050"/>
+            <a:gd name="connsiteY5" fmla="*/ 0 h 57150"/>
+            <a:gd name="connsiteX6" fmla="*/ 781050 w 781050"/>
+            <a:gd name="connsiteY6" fmla="*/ 9525 h 57150"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="781050" h="57150">
+              <a:moveTo>
+                <a:pt x="0" y="57150"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="28575" y="53975"/>
+                <a:pt x="57365" y="52352"/>
+                <a:pt x="85725" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="95629" y="45974"/>
+                <a:pt x="104560" y="40535"/>
+                <a:pt x="114300" y="38100"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="130006" y="34173"/>
+                <a:pt x="145956" y="31237"/>
+                <a:pt x="161925" y="28575"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="184070" y="24884"/>
+                <a:pt x="206511" y="23066"/>
+                <a:pt x="228600" y="19050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="254912" y="14266"/>
+                <a:pt x="270792" y="8161"/>
+                <a:pt x="295275" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="761998" y="9723"/>
+                <a:pt x="600042" y="9525"/>
+                <a:pt x="781050" y="9525"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Forma libre: forma 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA091A6A-C986-40A6-83F8-F0B958FE928A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10477500" y="1219200"/>
+          <a:ext cx="57150" cy="447675"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 57150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 447675"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 57150"/>
+            <a:gd name="connsiteY1" fmla="*/ 190500 h 447675"/>
+            <a:gd name="connsiteX2" fmla="*/ 28575 w 57150"/>
+            <a:gd name="connsiteY2" fmla="*/ 238125 h 447675"/>
+            <a:gd name="connsiteX3" fmla="*/ 57150 w 57150"/>
+            <a:gd name="connsiteY3" fmla="*/ 361950 h 447675"/>
+            <a:gd name="connsiteX4" fmla="*/ 57150 w 57150"/>
+            <a:gd name="connsiteY4" fmla="*/ 447675 h 447675"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="57150" h="447675">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="5839" y="70071"/>
+                <a:pt x="8674" y="123056"/>
+                <a:pt x="19050" y="190500"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="21512" y="206501"/>
+                <a:pt x="24648" y="222419"/>
+                <a:pt x="28575" y="238125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="41821" y="291110"/>
+                <a:pt x="57150" y="277194"/>
+                <a:pt x="57150" y="361950"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="57150" y="447675"/>
+              </a:lnTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>129963</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Forma libre: forma 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08F5AEA-D53A-4181-AFAC-5C36F2981670}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9988338" y="1200150"/>
+          <a:ext cx="41487" cy="523877"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 12912 w 41487"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 523877"/>
+            <a:gd name="connsiteX1" fmla="*/ 22437 w 41487"/>
+            <a:gd name="connsiteY1" fmla="*/ 295275 h 523877"/>
+            <a:gd name="connsiteX2" fmla="*/ 41487 w 41487"/>
+            <a:gd name="connsiteY2" fmla="*/ 523875 h 523877"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="41487" h="523877">
+              <a:moveTo>
+                <a:pt x="12912" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="16087" y="98425"/>
+                <a:pt x="18858" y="196864"/>
+                <a:pt x="22437" y="295275"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="30865" y="527047"/>
+                <a:pt x="-44253" y="523875"/>
+                <a:pt x="41487" y="523875"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Forma libre: forma 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81720B45-41E5-4650-8D21-E60CEFF0D2C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9839325" y="1276350"/>
+          <a:ext cx="180975" cy="180975"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 180975"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 180975"/>
+            <a:gd name="connsiteX1" fmla="*/ 38100 w 180975"/>
+            <a:gd name="connsiteY1" fmla="*/ 47625 h 180975"/>
+            <a:gd name="connsiteX2" fmla="*/ 57150 w 180975"/>
+            <a:gd name="connsiteY2" fmla="*/ 76200 h 180975"/>
+            <a:gd name="connsiteX3" fmla="*/ 85725 w 180975"/>
+            <a:gd name="connsiteY3" fmla="*/ 95250 h 180975"/>
+            <a:gd name="connsiteX4" fmla="*/ 133350 w 180975"/>
+            <a:gd name="connsiteY4" fmla="*/ 142875 h 180975"/>
+            <a:gd name="connsiteX5" fmla="*/ 180975 w 180975"/>
+            <a:gd name="connsiteY5" fmla="*/ 180975 h 180975"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="180975" h="180975">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="12700" y="15875"/>
+                <a:pt x="25902" y="31361"/>
+                <a:pt x="38100" y="47625"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="44969" y="56783"/>
+                <a:pt x="49055" y="68105"/>
+                <a:pt x="57150" y="76200"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="65245" y="84295"/>
+                <a:pt x="76200" y="88900"/>
+                <a:pt x="85725" y="95250"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="120650" y="147637"/>
+                <a:pt x="85725" y="103188"/>
+                <a:pt x="133350" y="142875"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="183743" y="184869"/>
+                <a:pt x="141024" y="160999"/>
+                <a:pt x="180975" y="180975"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Forma libre: forma 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D12A85A-280B-4E75-AEAA-4D6F0274A9C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9858375" y="1446626"/>
+          <a:ext cx="161925" cy="220249"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 161925"/>
+            <a:gd name="connsiteY0" fmla="*/ 220249 h 220249"/>
+            <a:gd name="connsiteX1" fmla="*/ 19050 w 161925"/>
+            <a:gd name="connsiteY1" fmla="*/ 172624 h 220249"/>
+            <a:gd name="connsiteX2" fmla="*/ 38100 w 161925"/>
+            <a:gd name="connsiteY2" fmla="*/ 115474 h 220249"/>
+            <a:gd name="connsiteX3" fmla="*/ 95250 w 161925"/>
+            <a:gd name="connsiteY3" fmla="*/ 77374 h 220249"/>
+            <a:gd name="connsiteX4" fmla="*/ 123825 w 161925"/>
+            <a:gd name="connsiteY4" fmla="*/ 58324 h 220249"/>
+            <a:gd name="connsiteX5" fmla="*/ 142875 w 161925"/>
+            <a:gd name="connsiteY5" fmla="*/ 29749 h 220249"/>
+            <a:gd name="connsiteX6" fmla="*/ 152400 w 161925"/>
+            <a:gd name="connsiteY6" fmla="*/ 1174 h 220249"/>
+            <a:gd name="connsiteX7" fmla="*/ 161925 w 161925"/>
+            <a:gd name="connsiteY7" fmla="*/ 1174 h 220249"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX5" y="connsiteY5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX6" y="connsiteY6"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX7" y="connsiteY7"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="161925" h="220249">
+              <a:moveTo>
+                <a:pt x="0" y="220249"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="6350" y="204374"/>
+                <a:pt x="13207" y="188692"/>
+                <a:pt x="19050" y="172624"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="25912" y="153753"/>
+                <a:pt x="21392" y="126613"/>
+                <a:pt x="38100" y="115474"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="95250" y="77374"/>
+              </a:lnTo>
+              <a:lnTo>
+                <a:pt x="123825" y="58324"/>
+              </a:lnTo>
+              <a:cubicBezTo>
+                <a:pt x="130175" y="48799"/>
+                <a:pt x="137755" y="39988"/>
+                <a:pt x="142875" y="29749"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="147365" y="20769"/>
+                <a:pt x="146831" y="9528"/>
+                <a:pt x="152400" y="1174"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="154161" y="-1468"/>
+                <a:pt x="158750" y="1174"/>
+                <a:pt x="161925" y="1174"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-PE" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>73268</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>33530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>614728</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>74001</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A20173-28D1-4A7A-AB4F-5D04F9A10309}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1597268" y="4056011"/>
+          <a:ext cx="5912095" cy="2326471"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,170 +3505,170 @@
     <col min="8" max="8" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+    <row r="4" spans="2:8" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="F4" s="7"/>
+      <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="2:8" s="15" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
-      <c r="F5" s="17" t="s">
+    <row r="5" spans="2:8" s="8" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="9"/>
+      <c r="F5" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="19"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="21"/>
     </row>
-    <row r="6" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+    <row r="6" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
+    <row r="7" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
         <v>123</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="17">
         <v>39195</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="9" t="s">
+    <row r="8" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="9" t="s">
+    <row r="9" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
+    <row r="10" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
         <v>246</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="17">
         <v>39217</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="9" t="s">
+    <row r="11" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="G11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
+    <row r="12" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
         <v>280</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="17">
         <v>39237</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="G12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:8" s="15" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="9" t="s">
+    <row r="13" spans="2:8" s="8" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="8" t="s">
+      <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>5</v>
       </c>
     </row>
@@ -904,220 +3697,663 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AF1C50-15B0-4A0E-BFB6-A5FEC73FFC4A}">
   <dimension ref="B3:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="11.42578125" style="14"/>
-    <col min="5" max="5" width="31.85546875" style="14" customWidth="1"/>
+    <col min="2" max="4" width="11.42578125" style="7"/>
+    <col min="5" max="5" width="31.85546875" style="7" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" customWidth="1"/>
     <col min="9" max="9" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="21" t="s">
+      <c r="H4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="9">
+      <c r="B5" s="5">
         <v>123</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="12">
         <v>39195</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="5">
         <v>123</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="5">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
+      <c r="B6" s="5">
         <v>246</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="12">
         <v>39217</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="5">
         <v>123</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="5">
         <v>280</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="12">
         <v>39237</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="23" t="s">
+      <c r="E7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="5">
         <v>123</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="9">
+      <c r="G8" s="5">
         <v>246</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="9">
+      <c r="G9" s="5">
         <v>246</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="9">
+      <c r="J9" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="9">
+      <c r="G10" s="5">
         <v>280</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="I10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="9">
+      <c r="J10" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G11" s="9">
+      <c r="G11" s="5">
         <v>280</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="9">
+      <c r="J11" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="7:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6621CEEE-8572-4451-BD82-0399B50EF41B}">
-  <dimension ref="A1"/>
+  <dimension ref="C3:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="23.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="13" max="13" width="33.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:13" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C3" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="H3" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>123</v>
+      </c>
+      <c r="D5" s="12">
+        <v>39195</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5">
+        <v>123</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="5">
+        <v>20</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>246</v>
+      </c>
+      <c r="D6" s="12">
+        <v>39217</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5">
+        <v>123</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="5">
+        <v>5</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>280</v>
+      </c>
+      <c r="D7" s="12">
+        <v>39237</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5">
+        <v>123</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H8" s="5">
+        <v>246</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="5">
+        <v>10</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H9" s="5">
+        <v>246</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H10" s="5">
+        <v>280</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="H11" s="5">
+        <v>280</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L5:M9">
+    <sortCondition ref="L5:L9"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC4C493-06C1-4D59-B67A-CF0EB5727BD2}">
+  <dimension ref="B2:N10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="14" max="14" width="40.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="I2" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5">
+        <v>123</v>
+      </c>
+      <c r="F4" s="12">
+        <v>39195</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="5">
+        <v>123</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="5">
+        <v>20</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="5">
+        <v>246</v>
+      </c>
+      <c r="F5" s="12">
+        <v>39217</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5">
+        <v>123</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <v>5</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="5">
+        <v>280</v>
+      </c>
+      <c r="F6" s="12">
+        <v>39237</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="5">
+        <v>123</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I7" s="5">
+        <v>246</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="5">
+        <v>10</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I8" s="5">
+        <v>246</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I9" s="5">
+        <v>280</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I10" s="5">
+        <v>280</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>